--- a/templates/DEVQAFF/SalesOrder_LUI.xlsx
+++ b/templates/DEVQAFF/SalesOrder_LUI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\Provar\RSTK_AutomationOrg\rsqasampleproj\templates\AutomationOrg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\Provar\RSTK_AutomationOrg\rsqasampleproj\templates\DEVQAFF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4817CE-89FB-4AF9-A932-F4AD88B92668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF442A0-4021-4473-A245-9840855421E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Customer</t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t>DJ_Prod01_No-Track (No Track_MFG)</t>
+  </si>
+  <si>
+    <t>Configured</t>
+  </si>
+  <si>
+    <t>DivisionNumber</t>
+  </si>
+  <si>
+    <t>Conf_prod-No_track (purType)</t>
   </si>
 </sst>
 </file>
@@ -361,7 +370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
@@ -372,14 +381,20 @@
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
+      </c>
+      <c r="B2">
+        <v>901</v>
       </c>
     </row>
   </sheetData>
@@ -389,10 +404,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A018314-DE04-4A79-AD08-915EB1DA286B}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,7 +431,16 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>